--- a/excel/excel-training/Level 2/Data Validation Lists Examples - BEGIN.xlsx
+++ b/excel/excel-training/Level 2/Data Validation Lists Examples - BEGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonac\Dropbox\Excel Campus\Courses\Elevate\Course Files\Stage 2\Stage 2 Final Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B2304E-537A-42A5-B348-72808468CF5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF8249-2C86-1D4D-AC92-4DB27FC86C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A9355C8-AED0-4464-9B31-70807AAE47CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{5A9355C8-AED0-4464-9B31-70807AAE47CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 5" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Fruit &amp; Veg" sheetId="5" r:id="rId4"/>
     <sheet name="Source" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="rngProducts">Table3[Products]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="266">
   <si>
     <t>Y-Solowarm</t>
   </si>
@@ -829,6 +832,12 @@
   </si>
   <si>
     <t>https://www.excelcampus.com/tips/data-validation-drop-down-list/</t>
+  </si>
+  <si>
+    <t>https://www.excelcampus.com/vba/search-data-validation-drop-down-lists/</t>
+  </si>
+  <si>
+    <t>Hat</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1041,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B30BFD21-5718-4AE5-8B7A-52ADABD300B8}" name="Table3" displayName="Table3" ref="A1:A87" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:A87" xr:uid="{19CCD058-D689-4C76-B12F-BC5A176A4083}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B30BFD21-5718-4AE5-8B7A-52ADABD300B8}" name="Table3" displayName="Table3" ref="A1:A88" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:A88" xr:uid="{19CCD058-D689-4C76-B12F-BC5A176A4083}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{20671618-10FE-4242-B5B2-C809CBEE2DFF}" name="Products"/>
   </tableColumns>
@@ -1341,23 +1350,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="24.33203125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1365,25 +1374,25 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1398,20 +1407,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BC9774-5A6A-4511-8E4C-B28556443D9F}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -1433,13 +1442,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -1450,7 +1462,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1461,7 +1473,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1472,7 +1484,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1480,15 +1492,25 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{A4763907-333E-0948-9C51-4213BEA6BB19}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{761C2F26-17CA-554D-8130-B4C482F625EB}">
+      <formula1>rngProducts</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1499,448 +1521,455 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F710E2-8B55-42EC-889A-2858BA8E44FC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A87"/>
+  <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1956,837 +1985,837 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A135" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>256</v>
       </c>
@@ -2802,12 +2831,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>260</v>
       </c>
@@ -2815,7 +2844,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>262</v>
       </c>
